--- a/biology/Médecine/Métabolisme_des_médicaments/Métabolisme_des_médicaments.xlsx
+++ b/biology/Médecine/Métabolisme_des_médicaments/Métabolisme_des_médicaments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolisme_des_m%C3%A9dicaments</t>
+          <t>Métabolisme_des_médicaments</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le métabolisme des médicaments est la transformation, par des enzymes, d'un médicament en un ou plusieurs autres composés actifs ou inactifs médicalement. De nombreux organes le réalisent, reins, poumons, intestin, mais le principal est le foie[1]. La branche qui étudie le métabolisme des médicaments est la pharmacocinétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le métabolisme des médicaments est la transformation, par des enzymes, d'un médicament en un ou plusieurs autres composés actifs ou inactifs médicalement. De nombreux organes le réalisent, reins, poumons, intestin, mais le principal est le foie. La branche qui étudie le métabolisme des médicaments est la pharmacocinétique.
 </t>
         </is>
       </c>
